--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2334886.247180663</v>
+        <v>2454360.226202484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5673290.866899548</v>
+        <v>6042679.343973572</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.7631080650918</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -668,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -713,7 +715,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>155.8187408762874</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -868,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>180.0750960050908</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>138.9927610751703</v>
       </c>
       <c r="V5" t="n">
-        <v>271.6838240345947</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>66.77473100900718</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>55.67345343008499</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>368.2996275125495</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.1252144487362</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.25349940228689</v>
+        <v>20.58795471985056</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166892</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>140.7647574780677</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>272.7850611176471</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726197</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>317.3011188137037</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>25.3088892732851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>41.65613200122361</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.9727950216849</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,19 +2010,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712302</v>
+        <v>78.16614128474212</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>117.6389794551517</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>21.39150776600744</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>116.7770917239375</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.16766598549916</v>
+        <v>103.149878103475</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2764,7 +2766,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>102.1026425880272</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>119.6878865881506</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>57.29215110549234</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>51.69511841098215</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>105.5216215482644</v>
       </c>
     </row>
     <row r="38">
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>6.132873868425349</v>
+        <v>140.0204035061895</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3746,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>410.4169954124301</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262085</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>109.8268474048522</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116817</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>380.7444545567623</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>156.3950745845507</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0.8988224064686892</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163286</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
         <v>44.79688341939484</v>
@@ -4328,10 +4330,10 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L2" t="n">
         <v>667.4947029893171</v>
@@ -4340,10 +4342,10 @@
         <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4361,19 +4363,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1542.1289725064</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1145.737622806746</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1138.058028014898</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y2" t="n">
-        <v>732.720757969788</v>
+        <v>474.3658485662004</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>316.1957143288386</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>780.6342764512916</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>780.6342764512916</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3175035780623</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>617.3175035780623</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>445.4557293526227</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4498,10 +4500,10 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
         <v>2097.911122221615</v>
@@ -4516,22 +4518,22 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1872.882168612733</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.540941315744</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X4" t="n">
-        <v>1006.97704476155</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.6342764512916</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030287</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567329</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>895.8980050821372</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4574,16 +4576,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4598,19 +4600,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1759.221659021392</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.835372891113</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094559</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O6" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>521.7692547480065</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>521.7692547480065</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4729,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.533291375449</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1596.586012437937</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>685.0860276212358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>533.7979646336248</v>
       </c>
       <c r="C8" t="n">
-        <v>790.770711558475</v>
+        <v>510.937638687329</v>
       </c>
       <c r="D8" t="n">
-        <v>771.5184947838793</v>
+        <v>491.6854219127334</v>
       </c>
       <c r="E8" t="n">
-        <v>749.5819589721409</v>
+        <v>469.748886100995</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>448.6651083307993</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>44.49822504924753</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>44.49822504924753</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>953.6463289251549</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825398</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>861.7025734666139</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>689.7300103455299</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X10" t="n">
-        <v>959.9384314487219</v>
+        <v>1208.609823895031</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.9384314487219</v>
+        <v>982.2670555847728</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1765.976622961234</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C11" t="n">
-        <v>1339.075892974534</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D11" t="n">
-        <v>915.7832721595344</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E11" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>64.68215049679213</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679213</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1142.793917289187</v>
+        <v>1352.329819853104</v>
       </c>
       <c r="M11" t="n">
-        <v>1269.301153779693</v>
+        <v>2356.615921272162</v>
       </c>
       <c r="N11" t="n">
-        <v>1269.301153779693</v>
+        <v>3332.866979758863</v>
       </c>
       <c r="O11" t="n">
-        <v>2069.742766177495</v>
+        <v>4178.011629909675</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335423</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839606</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712747</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U11" t="n">
-        <v>2987.553606997527</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V11" t="n">
-        <v>2987.553606997527</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W11" t="n">
-        <v>2591.162257297874</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X11" t="n">
-        <v>2591.162257297874</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2185.824987252764</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>72.12879345870397</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>343.826282738295</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>934.3112093066346</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>934.3112093066346</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>1734.752821704437</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>1734.752821704437</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.9271847585218</v>
+        <v>745.3087301752724</v>
       </c>
       <c r="C13" t="n">
-        <v>478.9271847585218</v>
+        <v>745.3087301752724</v>
       </c>
       <c r="D13" t="n">
-        <v>478.9271847585218</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E13" t="n">
-        <v>478.9271847585218</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483617</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1544.436497948926</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1262.725030556954</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>987.8726267294674</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>745.3087301752724</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>745.3087301752724</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1212.743879824457</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>785.843149837757</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>362.5505290227573</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>362.5505290227573</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642958</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162098</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162098</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559901</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957704</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957704</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839606</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.18195388424</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480652</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.827044480652</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>2358.435694780999</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>2037.929514161096</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1632.592244115987</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679213</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679213</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679213</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945947</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1832.866411991198</v>
+        <v>917.232529437735</v>
       </c>
       <c r="C16" t="n">
-        <v>1660.893848870114</v>
+        <v>745.259966316651</v>
       </c>
       <c r="D16" t="n">
-        <v>1660.893848870114</v>
+        <v>581.9431934434217</v>
       </c>
       <c r="E16" t="n">
-        <v>1494.685643022967</v>
+        <v>415.7349875962753</v>
       </c>
       <c r="F16" t="n">
-        <v>1322.823868797528</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G16" t="n">
-        <v>1297.259334178048</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686202</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.694497426478</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650636</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856473</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150894</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121145</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997181</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676944</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598845</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839606</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>3234.107524839606</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>3063.972477358741</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="T16" t="n">
-        <v>2820.633129584641</v>
+        <v>1990.112011205192</v>
       </c>
       <c r="U16" t="n">
-        <v>2540.448681084945</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>2540.448681084945</v>
+        <v>1428.216095313525</v>
       </c>
       <c r="W16" t="n">
-        <v>2265.596277257458</v>
+        <v>1386.139194302188</v>
       </c>
       <c r="X16" t="n">
-        <v>2023.032380703264</v>
+        <v>1143.575297747993</v>
       </c>
       <c r="Y16" t="n">
-        <v>2023.032380703264</v>
+        <v>917.232529437735</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5558,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>964.4851292537592</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930062</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808978</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357484</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886019</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631623</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573944</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655488</v>
+        <v>181.2584116732448</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.628073325703</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.628073325703</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4834.951221791732</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4553.23975439976</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4553.23975439976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3566.14133793372</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="C25" t="n">
-        <v>3394.168774812636</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="D25" t="n">
-        <v>3394.168774812636</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E25" t="n">
-        <v>3227.96056896549</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>3056.09879474005</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>3056.09879474005</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4309.90040662566</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>4035.048002798173</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>3792.484106243979</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>3566.14133793372</v>
+        <v>624.9338576708085</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>747.5965237391339</v>
+        <v>412.355951603442</v>
       </c>
       <c r="C28" t="n">
-        <v>575.6239606180499</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D28" t="n">
-        <v>412.3071877448206</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
         <v>246.0989818976742</v>
@@ -6412,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1228.793760306111</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>986.2298637519162</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.8870954416583</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,19 +6548,19 @@
         <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M30" t="n">
-        <v>374.0002026854196</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N30" t="n">
-        <v>374.0002026854196</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>648.6278400003578</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.421457337036</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C31" t="n">
-        <v>440.421457337036</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2179.581758406808</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1936.242410632708</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1656.057962133013</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1374.346494741041</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1099.494090913554</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>856.9301943593596</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>630.5874260491016</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
         <v>1021.509065974867</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3441.873753098052</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3269.901189976968</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>4937.694706393724</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>4657.510257894029</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4375.798790502057</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4100.94638667457</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>3858.382490120375</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>3632.039721810117</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
         <v>274.1644876312681</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7138,7 +7140,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7163,55 +7165,55 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.199584662357</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>366.6855125151233</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490622</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905341</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7242,28 +7244,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>850.6571429016585</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>678.6845797805745</v>
       </c>
       <c r="D40" t="n">
-        <v>208.2661037548711</v>
+        <v>515.3678069073452</v>
       </c>
       <c r="E40" t="n">
-        <v>208.2661037548711</v>
+        <v>515.3678069073452</v>
       </c>
       <c r="F40" t="n">
-        <v>208.2661037548711</v>
+        <v>343.5060326819056</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>1040.823111613724</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2456.769745674325</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2029.869015687626</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1606.576394872626</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227572</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.6821504967921</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>64.6821504967921</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L41" t="n">
-        <v>64.6821504967921</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M41" t="n">
-        <v>865.1237628945945</v>
+        <v>2356.61592127216</v>
       </c>
       <c r="N41" t="n">
-        <v>1665.565375292397</v>
+        <v>3332.866979758861</v>
       </c>
       <c r="O41" t="n">
-        <v>2466.006987690199</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335422</v>
+        <v>4886.290909067601</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4886.290909067601</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839606</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839606</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>2876.618109965855</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>2876.618109965855</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>2876.618109965855</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2876.618109965855</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282473</v>
+        <v>3762.28310440045</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457521</v>
+        <v>3644.777200917954</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610371</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339743</v>
+        <v>3436.235308706177</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168785</v>
+        <v>3342.589478389081</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>3248.535706606685</v>
       </c>
       <c r="H42" t="n">
-        <v>64.6821504967921</v>
+        <v>3195.159613368995</v>
       </c>
       <c r="I42" t="n">
-        <v>64.6821504967921</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="J42" t="n">
-        <v>64.6821504967921</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="K42" t="n">
-        <v>64.6821504967921</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="L42" t="n">
-        <v>64.6821504967921</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945945</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.9281686795</v>
+        <v>3202.606256330907</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>4092.087534342379</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>4808.285251380877</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>4921.827933864801</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510758</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.90172586734</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700557</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950177</v>
+        <v>4030.90300246722</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.73265094831</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>3899.787159064633</v>
       </c>
       <c r="C43" t="n">
-        <v>975.8907098999449</v>
+        <v>3727.814595943549</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267156</v>
+        <v>3564.49782307032</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>3398.289617223173</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3226.427842997733</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>3060.170873291966</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2916.37460480012</v>
       </c>
       <c r="I43" t="n">
-        <v>64.6821504967921</v>
+        <v>2823.434216536375</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209501</v>
+        <v>2880.925544760533</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.45314596637</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260791</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231042</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107078</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786841</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708742</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>4833.712196468638</v>
       </c>
       <c r="T43" t="n">
-        <v>2198.056564597094</v>
+        <v>4833.712196468638</v>
       </c>
       <c r="U43" t="n">
-        <v>1917.872116097398</v>
+        <v>4833.712196468638</v>
       </c>
       <c r="V43" t="n">
-        <v>1806.935906597547</v>
+        <v>4833.712196468638</v>
       </c>
       <c r="W43" t="n">
-        <v>1806.935906597547</v>
+        <v>4558.859792641151</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.372010043352</v>
+        <v>4316.295896086956</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>4089.953127776698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2150.566981099378</v>
+        <v>2538.475729536477</v>
       </c>
       <c r="C44" t="n">
-        <v>1723.666251112678</v>
+        <v>2111.574999549777</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.373630297678</v>
+        <v>1688.282378734777</v>
       </c>
       <c r="E44" t="n">
-        <v>874.3966904455357</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>449.2725086349359</v>
+        <v>837.1812570720354</v>
       </c>
       <c r="G44" t="n">
-        <v>64.6821504967921</v>
+        <v>432.842194661484</v>
       </c>
       <c r="H44" t="n">
-        <v>64.6821504967921</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.72722171149</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2028.168834109292</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2028.168834109292</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2660.465710453519</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453519</v>
+        <v>4886.290909067601</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957703</v>
+        <v>4886.290909067601</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>4899.479949822644</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4678.554378867277</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.752615436018</v>
+        <v>4420.199469463689</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.752615436018</v>
+        <v>4062.710054589938</v>
       </c>
       <c r="W44" t="n">
-        <v>2975.752615436018</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2975.752615436018</v>
+        <v>3254.598706058033</v>
       </c>
       <c r="Y44" t="n">
-        <v>2570.415345390908</v>
+        <v>2849.261436012923</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282473</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457521</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610371</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339743</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168785</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>526.763381732017</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1327.204994129819</v>
+        <v>221.066270324827</v>
       </c>
       <c r="O45" t="n">
-        <v>1327.204994129819</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950177</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.73265094831</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>1019.941294529998</v>
       </c>
       <c r="C46" t="n">
-        <v>975.8907098999449</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6821504967921</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209501</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.09517790992</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.910729410225</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1964.910729410225</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597547</v>
+        <v>1263.413092504868</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043352</v>
+        <v>1020.849195950673</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>1019.941294529998</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>301.3352940721928</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N3" t="n">
-        <v>461.4026962257056</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8146,13 +8148,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8222,19 +8224,19 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>181.5591018660332</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8295,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>462.8067063011424</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>266.2788756958121</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>936.9478163288031</v>
       </c>
       <c r="M11" t="n">
-        <v>165.2163502635794</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>381.5924700313612</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1890204018834</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>326.6138366035045</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>543.6318887145195</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>231.246468400314</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321238</v>
+        <v>769.4073585886034</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9240,10 +9242,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,16 +9254,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>510.4039481765655</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>694.4762069977534</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>866.9865054704456</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,22 +10196,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>425.5295243305632</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>300.5735435756951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902257</v>
       </c>
       <c r="O35" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192176</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,16 +10831,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>492.8628464086323</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>501.5122537252138</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093331</v>
+        <v>1011.482242653975</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443474</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659254</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>352.7420867043963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222294</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>231.2464684003144</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321236</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>137.4366165555686</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425243</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093331</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>676.0746728350414</v>
+        <v>127.9573338138551</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>489.8454989317471</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.869909423443</v>
+        <v>143.5544680578214</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.9720312369318</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>115.0066028314842</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568369</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.597542897051653</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.9720312369321</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>90.30168003022646</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.2855107354251</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>230.4477477879885</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.2915140032601</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>20.60474129238466</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.9667980409197</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>107.3022489032178</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.0966430394458</v>
+        <v>85.11443092147002</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>66.33105441802925</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
     </row>
     <row r="38">
@@ -25558,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>158.4615261402848</v>
+        <v>24.57399650252066</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>11.30017504119087</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869297014</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.759898196019435</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>169.0675053131991</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>19.55121722968352</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>115.7088052046614</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>223.1805182206867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385505.3236025399</v>
+        <v>511928.1422421633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>385505.32360254</v>
+        <v>511928.1422421634</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>385505.3236025399</v>
+        <v>511928.1422421632</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>385505.3236025399</v>
+        <v>511928.1422421632</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>343829.0724022654</v>
+        <v>456584.5592970646</v>
       </c>
       <c r="F2" t="n">
-        <v>343829.0724022653</v>
+        <v>456584.5592970645</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883936</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
-        <v>463675.0825883936</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="M2" t="n">
+        <v>463675.082588394</v>
+      </c>
+      <c r="N2" t="n">
         <v>463675.0825883939</v>
       </c>
-      <c r="N2" t="n">
-        <v>463675.0825883938</v>
-      </c>
       <c r="O2" t="n">
-        <v>343829.072402265</v>
+        <v>456584.5592970645</v>
       </c>
       <c r="P2" t="n">
-        <v>343829.072402265</v>
+        <v>456584.5592970646</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346216</v>
+        <v>207432.287616561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115406</v>
+        <v>7625.622083481447</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>173130.4912056395</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250632</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250632</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
@@ -26442,22 +26444,22 @@
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="O4" t="n">
-        <v>577.7341333215404</v>
+        <v>786.9066424250628</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215403</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.434377562</v>
+        <v>76058.47810803245</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.434377562</v>
+        <v>76058.47810803245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87156.46732475111</v>
+        <v>87156.4673247512</v>
       </c>
       <c r="C6" t="n">
-        <v>273561.2007394884</v>
+        <v>273561.2007394882</v>
       </c>
       <c r="D6" t="n">
         <v>273561.2007394884</v>
       </c>
       <c r="E6" t="n">
-        <v>218761.9527379196</v>
+        <v>172306.886930046</v>
       </c>
       <c r="F6" t="n">
-        <v>294092.9038913817</v>
+        <v>379739.174546607</v>
       </c>
       <c r="G6" t="n">
-        <v>256234.5603284804</v>
+        <v>377499.3380565394</v>
       </c>
       <c r="H6" t="n">
-        <v>385124.9601400206</v>
+        <v>385124.9601400207</v>
       </c>
       <c r="I6" t="n">
-        <v>385124.9601400205</v>
+        <v>385124.9601400208</v>
       </c>
       <c r="J6" t="n">
         <v>239591.2902052042</v>
@@ -26549,19 +26551,19 @@
         <v>385124.9601400208</v>
       </c>
       <c r="L6" t="n">
-        <v>385124.9601400207</v>
+        <v>385124.9601400209</v>
       </c>
       <c r="M6" t="n">
-        <v>322251.023174647</v>
+        <v>211994.4689343815</v>
       </c>
       <c r="N6" t="n">
-        <v>385124.9601400208</v>
+        <v>385124.9601400209</v>
       </c>
       <c r="O6" t="n">
-        <v>294092.9038913815</v>
+        <v>379739.174546607</v>
       </c>
       <c r="P6" t="n">
-        <v>294092.9038913815</v>
+        <v>379739.1745466071</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099014</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099014</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629551</v>
+        <v>27.82210658548058</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.7339978717819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629551</v>
+        <v>27.82210658548058</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8867725835229</v>
+        <v>74.65813289307459</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.775659132422732</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>60.83085829126816</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>116.7785992343815</v>
       </c>
       <c r="V5" t="n">
-        <v>82.23069669041826</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27774,16 +27776,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>103.368425474178</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>216.4304263591271</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>52.57331247994421</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0.1704573377096494</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.0108096226581</v>
+        <v>167.6763543050944</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28740,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N3" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34866,13 +34868,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34942,19 +34944,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35015,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>245.6677613624788</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>898.6357738961802</v>
       </c>
       <c r="M11" t="n">
-        <v>127.7850873641476</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>360.2494418178195</v>
       </c>
       <c r="O12" t="n">
-        <v>140.0171306796612</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>290.8492358086951</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>506.0565269042882</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>209.9034401867723</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099016</v>
+        <v>746.2354688663812</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>487.2320584543432</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>845.643477256904</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>403.0144376163337</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557797</v>
       </c>
       <c r="O35" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336311</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,16 +37551,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>455.4718870526082</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099014</v>
+        <v>974.0509797545435</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099014</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099014</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>315.166724894165</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>209.9034401867728</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099014</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>114.6895782665901</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099014</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099014</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>638.6837134790172</v>
+        <v>90.56637445783099</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>466.7487184194191</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099014</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454360.226202484</v>
+        <v>2453642.236087624</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.9917477555401</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>68.60526130391781</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>172.8126925324052</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>180.0750960050908</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>22.51978202893098</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>138.9927610751703</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66.77473100900718</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>272.5206687449376</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1147,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.1252144487362</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.58795471985056</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>47.59708018839045</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>313.7451392166892</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>157.6868814224728</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>272.7850611176471</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>147.7993290726197</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>63.12615032060499</v>
       </c>
       <c r="W16" t="n">
-        <v>41.65613200122361</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>120.1141141230986</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.16614128474212</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.7770917239375</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.149878103475</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>24.43802729683394</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2769,13 +2769,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9261600196103</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>57.29215110549234</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>56.62622040975588</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.5216215482644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,13 +3669,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>140.0204035061895</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>238.5383943267558</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262085</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>327.8597686516896</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.01098438110735</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116817</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8988224064686892</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.9297397222204</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2155.613008721045</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2155.613008721045</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.3658485662004</v>
+        <v>988.7153793106833</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751886</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
         <v>1220.501010560616</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4488,16 +4488,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.883781619951</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1872.882168612733</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1592.697720113037</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1592.697720113037</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1317.84531628555</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>1317.84531628555</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
         <v>79.69375467592363</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819458</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,19 +4594,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="U5" t="n">
-        <v>1759.221659021392</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="V5" t="n">
-        <v>1401.732244147642</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.732244147642</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
         <v>1394.052649355793</v>
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>1417.526784297715</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.0860276212358</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>685.0860276212358</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>521.7692547480065</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>521.7692547480065</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
         <v>683.2064757736641</v>
@@ -4770,7 +4770,7 @@
         <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.0860276212358</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.7979646336248</v>
+        <v>417.2396878051176</v>
       </c>
       <c r="C8" t="n">
-        <v>510.937638687329</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>491.6854219127334</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>469.748886100995</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>448.6651083307993</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N8" t="n">
         <v>957.7672188505812</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1366.663193762113</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X8" t="n">
-        <v>954.9431949298605</v>
+        <v>1242.425322141757</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.6463289251549</v>
+        <v>837.0880520966476</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1424.973427259627</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1424.973427259627</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>961.4711417263379</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4985786052539</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2176.833393686224</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.026124276713</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W10" t="n">
-        <v>1451.173720449226</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X10" t="n">
-        <v>1208.609823895031</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y10" t="n">
-        <v>982.2670555847728</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721395</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734695</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919695</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5044,49 +5044,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1352.329819853104</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2356.615921272162</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3332.866979758863</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O11" t="n">
-        <v>4178.011629909675</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067603</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.71005458994</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890287</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058035</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012925</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>728.4213815582225</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>728.4213815582225</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
         <v>1444.619098596721</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.3087301752724</v>
+        <v>597.5373920517386</v>
       </c>
       <c r="C13" t="n">
-        <v>745.3087301752724</v>
+        <v>425.5648289306546</v>
       </c>
       <c r="D13" t="n">
-        <v>581.9919573020431</v>
+        <v>425.5648289306546</v>
       </c>
       <c r="E13" t="n">
-        <v>581.9919573020431</v>
+        <v>259.3566230835081</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1301830766035</v>
+        <v>259.3566230835081</v>
       </c>
       <c r="G13" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
         <v>100.0769448789901</v>
@@ -5205,7 +5205,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1544.436497948926</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1262.725030556954</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>987.8726267294674</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>745.3087301752724</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.3087301752724</v>
+        <v>787.7033607638042</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
         <v>2111.574999549778</v>
@@ -5287,43 +5287,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2107.813759290661</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3084.064817777362</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>3929.209467928174</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.20542956342</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067603</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>944.322395923808</v>
       </c>
       <c r="M15" t="n">
-        <v>371.7744341585812</v>
+        <v>944.322395923808</v>
       </c>
       <c r="N15" t="n">
-        <v>371.7744341585812</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O15" t="n">
-        <v>1110.547548336299</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
         <v>1826.745265374797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.232529437735</v>
+        <v>1039.461798911381</v>
       </c>
       <c r="C16" t="n">
-        <v>745.259966316651</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>581.9431934434217</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>415.7349875962753</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>243.8732133708357</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>243.8732133708357</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5442,7 +5442,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.112011205192</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.927562705496</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.216095313525</v>
+        <v>1973.386836315387</v>
       </c>
       <c r="W16" t="n">
-        <v>1386.139194302188</v>
+        <v>1698.5344324879</v>
       </c>
       <c r="X16" t="n">
-        <v>1143.575297747993</v>
+        <v>1455.970535933705</v>
       </c>
       <c r="Y16" t="n">
-        <v>917.232529437735</v>
+        <v>1229.627767623447</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D19" t="n">
-        <v>181.2584116732448</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E19" t="n">
-        <v>181.2584116732448</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>181.2584116732448</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>181.2584116732448</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>181.2584116732448</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>700.2342829360799</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="L21" t="n">
-        <v>700.2342829360799</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="M21" t="n">
-        <v>700.2342829360799</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N21" t="n">
-        <v>700.2342829360799</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5925,37 +5925,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>939.4897558901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.7678889587429</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.9338576708085</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.355951603442</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>412.355951603442</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2258.030864761549</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>772.98449592559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>431.8276921262043</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>621.99366083827</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478503</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>1112.773316863137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>1112.773316863137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>1112.773316863137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>832.9089957654462</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>660.9364326443622</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>497.6196597711329</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>1023.074964477512</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>366.6855125151233</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1082.193820490622</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109899</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>381.4468456473314</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>1437.433383623377</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1437.433383623377</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.6571429016585</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C40" t="n">
-        <v>678.6845797805745</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D40" t="n">
-        <v>515.3678069073452</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E40" t="n">
-        <v>515.3678069073452</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F40" t="n">
-        <v>343.5060326819056</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X40" t="n">
-        <v>1267.165879923982</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y40" t="n">
-        <v>1040.823111613724</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="41">
@@ -7414,46 +7414,46 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2356.61592127216</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3332.866979758861</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>4178.011629909674</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4886.290909067601</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067601</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
         <v>2923.427222571479</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.28310440045</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917954</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706177</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389081</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606685</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368995</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3202.606256330907</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>3202.606256330907</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>3202.606256330907</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>3202.606256330907</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M42" t="n">
-        <v>3202.606256330907</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N42" t="n">
-        <v>3202.606256330907</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>4092.087534342379</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>4808.285251380877</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>4921.827933864801</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510758</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.90172586734</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700557</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.90300246722</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3899.787159064633</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>3727.814595943549</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>3564.49782307032</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>3398.289617223173</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>3226.427842997733</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3060.170873291966</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2916.37460480012</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536375</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760533</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.45314596637</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260791</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231042</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107078</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786841</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708742</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4833.712196468638</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4833.712196468638</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>4833.712196468638</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>4833.712196468638</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>4558.859792641151</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>4316.295896086956</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>4089.953127776698</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536477</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549777</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734777</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720354</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.842194661484</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
         <v>134.9738161355189</v>
@@ -7663,37 +7663,37 @@
         <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>4178.011629909674</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4886.290909067601</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067601</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822644</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867277</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463689</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589938</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
         <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058033</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012923</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N45" t="n">
-        <v>221.066270324827</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O45" t="n">
-        <v>1110.547548336299</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
         <v>1826.745265374797</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1019.941294529998</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1819.976963724326</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.265496332355</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.413092504868</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.849195950673</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1019.941294529998</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7990,19 +7990,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M3" t="n">
-        <v>372.7867989824566</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8455,19 +8455,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>455.2848447234538</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>936.9478163288031</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>381.5924700313612</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>543.6318887145195</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O15" t="n">
-        <v>769.4073585886034</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>492.8628464086332</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,7 +9248,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>741.6322999927428</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,7 +9257,7 @@
         <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>384.2267507842765</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,16 +9491,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>694.4762069977534</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9652,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,16 +9722,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>866.9865054704456</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10123,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>736.7071336234585</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>425.5295243305632</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10433,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,25 +10591,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>967.5075822902257</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>296.4732919192176</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>501.5122537252138</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11062,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1011.482242653975</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>137.4366165555686</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11311,16 +11311,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>127.9573338138551</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>143.5544680578214</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>107.9720312369318</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.907518586237359</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.597542897051653</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.9720312369321</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>215.7682023974464</v>
       </c>
       <c r="W16" t="n">
-        <v>230.4477477879885</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>41.56949102139835</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>20.60474129238466</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.3022489032178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.11443092147002</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>2.326677470262808</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>104.3914540390047</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>107.9199033789191</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.557719078891</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.57399650252066</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>1.59986326189707</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869297014</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>73.42412869296896</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>6.759898196019435</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>223.1805182206867</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021387</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511928.1422421632</v>
+        <v>511928.1422421633</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511928.1422421632</v>
+        <v>511928.1422421633</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092096</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092093</v>
@@ -26322,10 +26322,10 @@
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>456584.5592970646</v>
+        <v>456584.5592970644</v>
       </c>
       <c r="F2" t="n">
-        <v>456584.5592970645</v>
+        <v>456584.5592970644</v>
       </c>
       <c r="G2" t="n">
         <v>463675.0825883939</v>
@@ -26340,22 +26340,22 @@
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="N2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="O2" t="n">
         <v>456584.5592970645</v>
       </c>
       <c r="P2" t="n">
-        <v>456584.5592970646</v>
+        <v>456584.5592970644</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.287616561</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481447</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056395</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="H4" t="n">
         <v>800.0602599433673</v>
-      </c>
-      <c r="H4" t="n">
-        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
@@ -26444,19 +26444,19 @@
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="M4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="N4" t="n">
-        <v>800.0602599433669</v>
-      </c>
       <c r="O4" t="n">
-        <v>786.9066424250628</v>
+        <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
         <v>786.906642425063</v>
@@ -26478,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803245</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803245</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87156.4673247512</v>
+        <v>87156.46732475134</v>
       </c>
       <c r="C6" t="n">
         <v>273561.2007394882</v>
@@ -26530,40 +26530,40 @@
         <v>273561.2007394884</v>
       </c>
       <c r="E6" t="n">
-        <v>172306.886930046</v>
+        <v>172234.3698336455</v>
       </c>
       <c r="F6" t="n">
-        <v>379739.174546607</v>
+        <v>379666.6574502065</v>
       </c>
       <c r="G6" t="n">
-        <v>377499.3380565394</v>
+        <v>377448.3073943551</v>
       </c>
       <c r="H6" t="n">
-        <v>385124.9601400207</v>
+        <v>385073.9294778365</v>
       </c>
       <c r="I6" t="n">
-        <v>385124.9601400208</v>
+        <v>385073.9294778365</v>
       </c>
       <c r="J6" t="n">
-        <v>239591.2902052042</v>
+        <v>239540.2595430199</v>
       </c>
       <c r="K6" t="n">
-        <v>385124.9601400208</v>
+        <v>385073.9294778364</v>
       </c>
       <c r="L6" t="n">
-        <v>385124.9601400209</v>
+        <v>385073.9294778364</v>
       </c>
       <c r="M6" t="n">
-        <v>211994.4689343815</v>
+        <v>211943.4382721968</v>
       </c>
       <c r="N6" t="n">
-        <v>385124.9601400209</v>
+        <v>385073.9294778365</v>
       </c>
       <c r="O6" t="n">
-        <v>379739.174546607</v>
+        <v>379666.6574502065</v>
       </c>
       <c r="P6" t="n">
-        <v>379739.1745466071</v>
+        <v>379666.6574502064</v>
       </c>
     </row>
   </sheetData>
@@ -26825,7 +26825,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
         <v>1250.961810987376</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548058</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717819</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548058</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.65813289307459</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>150.1110539418954</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.45161649253976</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>60.83085829126816</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>80.80383915666002</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>116.7785992343815</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>103.368425474178</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>150.1110539418953</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1704573377096494</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.6763543050944</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>120.836616817666</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34710,19 +34710,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>67.90411371775774</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>349.6900184701286</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35175,19 +35175,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>432.5378064344753</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.6357738961802</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.2494418178195</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>506.0565269042882</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O15" t="n">
-        <v>746.2354688663812</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>455.4718870526091</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>671.3043172755312</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36293,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977442</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36372,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>845.643477256904</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36843,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>699.4275107890124</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>403.0144376163337</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>930.2279594557797</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.0533324336311</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>478.3403640029916</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>974.0509797545435</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.6895782665901</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38031,16 +38031,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>90.56637445783099</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
